--- a/Copy of TFS_Submission_October 2022 RPM Billing_11072022 (005).xlsx
+++ b/Copy of TFS_Submission_October 2022 RPM Billing_11072022 (005).xlsx
@@ -4168,9 +4168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K282" sqref="K282"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Copy of TFS_Submission_October 2022 RPM Billing_11072022 (005).xlsx
+++ b/Copy of TFS_Submission_October 2022 RPM Billing_11072022 (005).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1234">
   <si>
     <t>Crown EHR ID</t>
   </si>
@@ -3419,126 +3419,21 @@
     <t>E08.42</t>
   </si>
   <si>
-    <t xml:space="preserve"> E11.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I15.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I69.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I10</t>
-  </si>
-  <si>
     <t>E10.29</t>
   </si>
   <si>
-    <t xml:space="preserve"> I13.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Z79.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E78.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I12.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N18.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N18.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E11.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G62.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R60.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R03.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I95.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I48.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I48.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I50.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I63.9</t>
-  </si>
-  <si>
     <t>E11.51</t>
   </si>
   <si>
-    <t xml:space="preserve"> I73.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I95.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Z95.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Z79.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E78.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I25.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E78.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I20.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E11.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E11.9</t>
-  </si>
-  <si>
     <t>E11.43</t>
   </si>
   <si>
     <t>E11.0021</t>
   </si>
   <si>
-    <t xml:space="preserve"> E11.0040</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N18.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> K21.9</t>
-  </si>
-  <si>
     <t>E11.0065</t>
   </si>
   <si>
-    <t xml:space="preserve"> N18.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R73.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I50.9</t>
-  </si>
-  <si>
     <t>E10.22</t>
   </si>
   <si>
@@ -3548,114 +3443,39 @@
     <t>E66.9</t>
   </si>
   <si>
-    <t xml:space="preserve"> F33.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F41.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Z68.43</t>
-  </si>
-  <si>
     <t>E03.8</t>
   </si>
   <si>
-    <t xml:space="preserve"> G30.1</t>
-  </si>
-  <si>
     <t>G40.409</t>
   </si>
   <si>
-    <t xml:space="preserve"> I11.9</t>
-  </si>
-  <si>
     <t>E11.610</t>
   </si>
   <si>
-    <t xml:space="preserve"> E61.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F31.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R10.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R13.10</t>
-  </si>
-  <si>
     <t>E11.39</t>
   </si>
   <si>
-    <t xml:space="preserve"> F01.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I50.812</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M79.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I48.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R55</t>
-  </si>
-  <si>
     <t>F25.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> F51.05</t>
-  </si>
-  <si>
     <t>E785</t>
   </si>
   <si>
-    <t xml:space="preserve"> F411</t>
-  </si>
-  <si>
     <t>R00.1</t>
   </si>
   <si>
-    <t xml:space="preserve"> I42.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G89.29</t>
-  </si>
-  <si>
     <t>F10.20</t>
   </si>
   <si>
     <t>M25.561</t>
   </si>
   <si>
-    <t xml:space="preserve"> Z99.11</t>
-  </si>
-  <si>
     <t>I48.20</t>
   </si>
   <si>
-    <t xml:space="preserve"> R06.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N18.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Z99.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R09.89</t>
-  </si>
-  <si>
     <t>F41.9</t>
   </si>
   <si>
-    <t xml:space="preserve"> R10.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I13.0</t>
-  </si>
-  <si>
     <t>F20.00</t>
   </si>
   <si>
@@ -3780,6 +3600,135 @@
   </si>
   <si>
     <t>Yeman Weldeselase</t>
+  </si>
+  <si>
+    <t>E78.1</t>
+  </si>
+  <si>
+    <t>I48.0</t>
+  </si>
+  <si>
+    <t>N18.31</t>
+  </si>
+  <si>
+    <t>G62.9</t>
+  </si>
+  <si>
+    <t>R60.0</t>
+  </si>
+  <si>
+    <t>I73.9</t>
+  </si>
+  <si>
+    <t>I95.1</t>
+  </si>
+  <si>
+    <t>Z95.2</t>
+  </si>
+  <si>
+    <t>E78.49</t>
+  </si>
+  <si>
+    <t>I25.10</t>
+  </si>
+  <si>
+    <t>I20.8</t>
+  </si>
+  <si>
+    <t>E11.0040</t>
+  </si>
+  <si>
+    <t>N18.32</t>
+  </si>
+  <si>
+    <t>I48.91</t>
+  </si>
+  <si>
+    <t>F33.9</t>
+  </si>
+  <si>
+    <t>E61.1</t>
+  </si>
+  <si>
+    <t>F31.9</t>
+  </si>
+  <si>
+    <t>I50.812</t>
+  </si>
+  <si>
+    <t>M79.2</t>
+  </si>
+  <si>
+    <t>I48.92</t>
+  </si>
+  <si>
+    <t>F51.05</t>
+  </si>
+  <si>
+    <t>F411</t>
+  </si>
+  <si>
+    <t>I42.0</t>
+  </si>
+  <si>
+    <t>G89.29</t>
+  </si>
+  <si>
+    <t>Z99.11</t>
+  </si>
+  <si>
+    <t>R06.9</t>
+  </si>
+  <si>
+    <t>N18.6</t>
+  </si>
+  <si>
+    <t>R09.89</t>
+  </si>
+  <si>
+    <t>Z79.01</t>
+  </si>
+  <si>
+    <t>N18.5</t>
+  </si>
+  <si>
+    <t>K21.9</t>
+  </si>
+  <si>
+    <t>G30.1</t>
+  </si>
+  <si>
+    <t>R13.10</t>
+  </si>
+  <si>
+    <t>F01.51</t>
+  </si>
+  <si>
+    <t>R55</t>
+  </si>
+  <si>
+    <t>R10.84</t>
+  </si>
+  <si>
+    <t>I50.30</t>
+  </si>
+  <si>
+    <t>I69.90</t>
+  </si>
+  <si>
+    <t>Z68.43</t>
+  </si>
+  <si>
+    <t>R10.11</t>
+  </si>
+  <si>
+    <t>Z99.2</t>
+  </si>
+  <si>
+    <t>N18.30</t>
+  </si>
+  <si>
+    <t>I63.9</t>
   </si>
 </sst>
 </file>
@@ -4168,7 +4117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4207,22 +4158,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1216</v>
+        <v>1156</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1244</v>
+        <v>1184</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>1248</v>
+        <v>1188</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>1247</v>
+        <v>1187</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>1246</v>
+        <v>1186</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>1245</v>
+        <v>1185</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>5</v>
@@ -4251,37 +4202,37 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>23522</v>
+        <v>26933</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
-        <v>15880</v>
+        <v>10630</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1239</v>
+        <v>1157</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1146</v>
+        <v>1191</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1147</v>
+        <v>313</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>1148</v>
+        <v>1108</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1149</v>
+        <v>1232</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>19</v>
@@ -4304,31 +4255,46 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>19485</v>
+        <v>23522</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2">
-        <v>20125</v>
+        <v>15880</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1217</v>
+        <v>1179</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1126</v>
+        <v>1105</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="N3" s="1">
         <v>99454</v>
       </c>
       <c r="O3" s="2">
-        <v>44853</v>
+        <v>44850</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -4339,41 +4305,34 @@
       <c r="R3" s="2">
         <v>44865</v>
       </c>
-      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>26029</v>
+        <v>19485</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>19266</v>
+        <v>20125</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="L4" s="1">
-        <v>99453</v>
-      </c>
-      <c r="M4" s="2">
-        <v>44835</v>
+        <v>1126</v>
       </c>
       <c r="N4" s="1">
         <v>99454</v>
       </c>
       <c r="O4" s="2">
-        <v>44861</v>
+        <v>44853</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -4384,43 +4343,47 @@
       <c r="R4" s="2">
         <v>44865</v>
       </c>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>26687</v>
+        <v>26029</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1249</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1250</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
-        <v>17644</v>
+        <v>19266</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1218</v>
+        <v>1157</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>19</v>
+        <v>313</v>
+      </c>
+      <c r="L5" s="1">
+        <v>99453</v>
+      </c>
+      <c r="M5" s="2">
+        <v>44835</v>
       </c>
       <c r="N5" s="1">
         <v>99454</v>
       </c>
       <c r="O5" s="2">
-        <v>44850</v>
+        <v>44861</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>44865</v>
@@ -4428,25 +4391,25 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>33576</v>
+        <v>26687</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>1189</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>1190</v>
       </c>
       <c r="E6" s="2">
-        <v>27616</v>
+        <v>17644</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1219</v>
+        <v>1158</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>313</v>
+        <v>1104</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>19</v>
@@ -4455,13 +4418,13 @@
         <v>99454</v>
       </c>
       <c r="O6" s="2">
-        <v>44854</v>
+        <v>44850</v>
       </c>
       <c r="P6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6" s="2">
         <v>44865</v>
@@ -4469,34 +4432,25 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>35499</v>
+        <v>33576</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
-        <v>20262</v>
+        <v>27616</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1217</v>
+        <v>1159</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>1132</v>
+        <v>313</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>19</v>
@@ -4505,13 +4459,13 @@
         <v>99454</v>
       </c>
       <c r="O7" s="2">
-        <v>44850</v>
+        <v>44854</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
         <v>44865</v>
@@ -4519,25 +4473,34 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>35551</v>
+        <v>35499</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
-        <v>17750</v>
+        <v>20262</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1243</v>
+        <v>1157</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>313</v>
+        <v>1129</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1228</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>19</v>
@@ -4546,7 +4509,7 @@
         <v>99454</v>
       </c>
       <c r="O8" s="2">
-        <v>44855</v>
+        <v>44850</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
@@ -4559,120 +4522,117 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
+        <v>35551</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2">
+        <v>17750</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="1">
+        <v>99454</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44855</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>40658</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <v>13267</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
         <v>44846</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>19521</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2">
-        <v>18420</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="1">
-        <v>99454</v>
-      </c>
-      <c r="O10" s="2">
-        <v>44850</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2">
-        <v>44865</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>19921</v>
+        <v>19521</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2">
-        <v>14305</v>
+        <v>18420</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1243</v>
+        <v>1160</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1134</v>
+        <v>1093</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>19</v>
@@ -4681,7 +4641,7 @@
         <v>99454</v>
       </c>
       <c r="O11" s="2">
-        <v>44851</v>
+        <v>44850</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
@@ -4695,25 +4655,28 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>20287</v>
+        <v>19921</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2">
-        <v>31379</v>
+        <v>14305</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1221</v>
+        <v>1183</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1093</v>
+        <v>1130</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>19</v>
@@ -4722,13 +4685,13 @@
         <v>99454</v>
       </c>
       <c r="O12" s="2">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <v>44865</v>
@@ -4736,29 +4699,26 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>20891</v>
+        <v>20287</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2">
-        <v>17212</v>
+        <v>31379</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1222</v>
+        <v>1161</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>1133</v>
-      </c>
       <c r="M13" s="2" t="s">
         <v>19</v>
       </c>
@@ -4766,13 +4726,13 @@
         <v>99454</v>
       </c>
       <c r="O13" s="2">
-        <v>44851</v>
+        <v>44850</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R13" s="2">
         <v>44865</v>
@@ -4780,28 +4740,28 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>22126</v>
+        <v>20891</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2">
-        <v>12560</v>
+        <v>17212</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1221</v>
+        <v>1162</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>19</v>
@@ -4810,13 +4770,13 @@
         <v>99454</v>
       </c>
       <c r="O14" s="2">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" s="2">
         <v>44865</v>
@@ -4824,31 +4784,37 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>23097</v>
+        <v>22126</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
-        <v>12109</v>
+        <v>12560</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1223</v>
+        <v>1161</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>19</v>
+      <c r="N15" s="1">
+        <v>99454</v>
+      </c>
+      <c r="O15" s="2">
+        <v>44850</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
@@ -4862,25 +4828,25 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>23443</v>
+        <v>23097</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2">
-        <v>16460</v>
+        <v>12109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1217</v>
+        <v>1163</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>313</v>
+        <v>1097</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>19</v>
@@ -4900,34 +4866,31 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>24429</v>
+        <v>23443</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2">
-        <v>19902</v>
+        <v>16460</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1224</v>
+        <v>1157</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1093</v>
+        <v>313</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="1">
-        <v>99454</v>
-      </c>
-      <c r="O17" s="2">
-        <v>44850</v>
+      <c r="O17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="P17" s="1">
         <v>1</v>
@@ -4941,31 +4904,34 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>24645</v>
+        <v>24429</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2">
-        <v>17487</v>
+        <v>19902</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1223</v>
+        <v>1164</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>313</v>
+        <v>1093</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>19</v>
+      <c r="N18" s="1">
+        <v>99454</v>
+      </c>
+      <c r="O18" s="2">
+        <v>44850</v>
       </c>
       <c r="P18" s="1">
         <v>1</v>
@@ -4979,34 +4945,31 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>25963</v>
+        <v>24645</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2">
-        <v>13801</v>
+        <v>17487</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1217</v>
+        <v>1163</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1108</v>
+        <v>313</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="1">
-        <v>99454</v>
-      </c>
-      <c r="O19" s="2">
-        <v>44850</v>
+      <c r="O19" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="P19" s="1">
         <v>1</v>
@@ -5020,28 +4983,25 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>25996</v>
+        <v>25963</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2">
-        <v>15730</v>
+        <v>13801</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1225</v>
+        <v>1157</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>1135</v>
+        <v>1108</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>19</v>
@@ -5050,7 +5010,7 @@
         <v>99454</v>
       </c>
       <c r="O20" s="2">
-        <v>44856</v>
+        <v>44850</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -5064,28 +5024,28 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>26097</v>
+        <v>25996</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2">
-        <v>26498</v>
+        <v>15730</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1226</v>
+        <v>1165</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1136</v>
+        <v>1103</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>19</v>
@@ -5094,7 +5054,7 @@
         <v>99454</v>
       </c>
       <c r="O21" s="2">
-        <v>44850</v>
+        <v>44856</v>
       </c>
       <c r="P21" s="1">
         <v>1</v>
@@ -5108,31 +5068,37 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>26344</v>
+        <v>26097</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2">
-        <v>15758</v>
+        <v>26498</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>313</v>
+        <v>1101</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>1120</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>19</v>
+      <c r="N22" s="1">
+        <v>99454</v>
+      </c>
+      <c r="O22" s="2">
+        <v>44850</v>
       </c>
       <c r="P22" s="1">
         <v>1</v>
@@ -5146,22 +5112,22 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>26545</v>
+        <v>26344</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2">
-        <v>20663</v>
+        <v>15758</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1222</v>
+        <v>1166</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>313</v>
@@ -5169,11 +5135,8 @@
       <c r="M23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="1">
-        <v>99454</v>
-      </c>
-      <c r="O23" s="2">
-        <v>44861</v>
+      <c r="O23" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="P23" s="1">
         <v>1</v>
@@ -5187,25 +5150,25 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>26645</v>
+        <v>26545</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2">
-        <v>24194</v>
+        <v>20663</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1217</v>
+        <v>1162</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1118</v>
+        <v>313</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>19</v>
@@ -5214,7 +5177,7 @@
         <v>99454</v>
       </c>
       <c r="O24" s="2">
-        <v>44850</v>
+        <v>44861</v>
       </c>
       <c r="P24" s="1">
         <v>1</v>
@@ -5228,25 +5191,25 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>26805</v>
+        <v>26645</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2">
-        <v>12874</v>
+        <v>24194</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1226</v>
+        <v>1157</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>313</v>
+        <v>1118</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>19</v>
@@ -5261,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
         <v>44865</v>
@@ -5269,37 +5232,25 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>26933</v>
+        <v>26805</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2">
-        <v>10630</v>
+        <v>12874</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1217</v>
+        <v>1166</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>1139</v>
+        <v>313</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>19</v>
@@ -5314,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" s="2">
         <v>44865</v>
@@ -5337,7 +5288,7 @@
         <v>12826</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>313</v>
@@ -5375,7 +5326,7 @@
         <v>8319</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1227</v>
+        <v>1167</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>313</v>
@@ -5416,7 +5367,7 @@
         <v>18956</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>313</v>
@@ -5457,13 +5408,13 @@
         <v>18032</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1131</v>
+        <v>1096</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>19</v>
@@ -5504,13 +5455,13 @@
         <v>10753</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>1097</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1140</v>
+        <v>1193</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>19</v>
@@ -5545,7 +5496,7 @@
         <v>17346</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>313</v>
@@ -5586,13 +5537,13 @@
         <v>17003</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>19</v>
@@ -5630,7 +5581,7 @@
         <v>18252</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>313</v>
@@ -5671,7 +5622,7 @@
         <v>9581</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1225</v>
+        <v>1165</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>1102</v>
@@ -5709,13 +5660,13 @@
         <v>12058</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>19</v>
@@ -5753,7 +5704,7 @@
         <v>11370</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1229</v>
+        <v>1169</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>313</v>
@@ -5791,7 +5742,7 @@
         <v>26493</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1230</v>
+        <v>1170</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>313</v>
@@ -5832,7 +5783,7 @@
         <v>27423</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1231</v>
+        <v>1171</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>313</v>
@@ -5873,7 +5824,7 @@
         <v>16274</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>313</v>
@@ -5911,7 +5862,7 @@
         <v>26697</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>313</v>
@@ -5952,13 +5903,13 @@
         <v>20454</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1232</v>
+        <v>1172</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1142</v>
+        <v>1194</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>19</v>
@@ -5993,7 +5944,7 @@
         <v>32238</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1225</v>
+        <v>1165</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>313</v>
@@ -6031,7 +5982,7 @@
         <v>9164</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1225</v>
+        <v>1165</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>313</v>
@@ -6072,7 +6023,7 @@
         <v>9944</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>313</v>
@@ -6113,7 +6064,7 @@
         <v>27934</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1227</v>
+        <v>1167</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>313</v>
@@ -6154,13 +6105,13 @@
         <v>10728</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1143</v>
+        <v>1195</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>19</v>
@@ -6195,7 +6146,7 @@
         <v>15193</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G48" s="1" t="e">
         <v>#N/A</v>
@@ -6239,13 +6190,13 @@
         <v>17300</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>19</v>
@@ -6283,7 +6234,7 @@
         <v>9842</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>313</v>
@@ -6324,7 +6275,7 @@
         <v>16556</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>313</v>
@@ -6365,13 +6316,13 @@
         <v>9907</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1227</v>
+        <v>1167</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>19</v>
@@ -6409,7 +6360,7 @@
         <v>22400</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>313</v>
@@ -6450,7 +6401,7 @@
         <v>15486</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>313</v>
@@ -6491,7 +6442,7 @@
         <v>15538</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1236</v>
+        <v>1176</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>313</v>
@@ -6532,7 +6483,7 @@
         <v>12824</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>1092</v>
@@ -6573,7 +6524,7 @@
         <v>15860</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>313</v>
@@ -6614,7 +6565,7 @@
         <v>24931</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>313</v>
@@ -6655,7 +6606,7 @@
         <v>22871</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>313</v>
@@ -6696,13 +6647,13 @@
         <v>21009</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>1113</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>19</v>
@@ -6740,7 +6691,7 @@
         <v>15808</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>313</v>
@@ -6781,7 +6732,7 @@
         <v>25244</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>1099</v>
@@ -6822,13 +6773,13 @@
         <v>20774</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1144</v>
+        <v>1094</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>19</v>
@@ -6866,7 +6817,7 @@
         <v>13831</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>1101</v>
@@ -6907,7 +6858,7 @@
         <v>15445</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1231</v>
+        <v>1171</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>313</v>
@@ -6948,7 +6899,7 @@
         <v>10824</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>1108</v>
@@ -6989,7 +6940,7 @@
         <v>16604</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1237</v>
+        <v>1177</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>1101</v>
@@ -7030,7 +6981,7 @@
         <v>19819</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>313</v>
@@ -7068,7 +7019,7 @@
         <v>17483</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>1105</v>
@@ -7109,7 +7060,7 @@
         <v>17964</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>1092</v>
@@ -7150,13 +7101,13 @@
         <v>18976</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1236</v>
+        <v>1176</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>1145</v>
+        <v>1098</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>19</v>
@@ -7194,7 +7145,7 @@
         <v>29083</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1229</v>
+        <v>1169</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>313</v>
@@ -7238,7 +7189,7 @@
         <v>13466</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1238</v>
+        <v>1178</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>313</v>
@@ -7279,7 +7230,7 @@
         <v>31519</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>313</v>
@@ -7320,7 +7271,7 @@
         <v>20908</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>313</v>
@@ -7361,7 +7312,7 @@
         <v>11320</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>313</v>
@@ -7402,7 +7353,7 @@
         <v>15179</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>313</v>
@@ -7440,7 +7391,7 @@
         <v>14637</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>313</v>
@@ -7481,7 +7432,7 @@
         <v>13379</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>313</v>
@@ -7522,7 +7473,7 @@
         <v>25410</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>313</v>
@@ -7563,7 +7514,7 @@
         <v>19499</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>1106</v>
@@ -7604,13 +7555,13 @@
         <v>17051</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>19</v>
@@ -7648,13 +7599,13 @@
         <v>13535</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1224</v>
+        <v>1164</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>19</v>
@@ -7689,7 +7640,7 @@
         <v>10740</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>313</v>
@@ -7730,7 +7681,7 @@
         <v>18292</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>1122</v>
@@ -7768,7 +7719,7 @@
         <v>18397</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>313</v>
@@ -7809,7 +7760,7 @@
         <v>9969</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>313</v>
@@ -7850,7 +7801,7 @@
         <v>19501</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1230</v>
+        <v>1170</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>313</v>
@@ -7888,7 +7839,7 @@
         <v>29680</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>1124</v>
@@ -7929,7 +7880,7 @@
         <v>20983</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1230</v>
+        <v>1170</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>313</v>
@@ -7970,13 +7921,13 @@
         <v>15673</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1150</v>
+        <v>1131</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>1151</v>
+        <v>1196</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>19</v>
@@ -8014,13 +7965,13 @@
         <v>23097</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>1152</v>
+        <v>1197</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>19</v>
@@ -8058,16 +8009,16 @@
         <v>23552</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1239</v>
+        <v>1179</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>1153</v>
+        <v>1198</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>1154</v>
+        <v>1219</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>19</v>
@@ -8105,7 +8056,7 @@
         <v>18688</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1237</v>
+        <v>1177</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>313</v>
@@ -8146,13 +8097,13 @@
         <v>23912</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>1155</v>
+        <v>1199</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>19</v>
@@ -8190,7 +8141,7 @@
         <v>31402</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1238</v>
+        <v>1178</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>313</v>
@@ -8228,7 +8179,7 @@
         <v>17645</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1229</v>
+        <v>1169</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>1093</v>
@@ -8269,7 +8220,7 @@
         <v>29930</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>313</v>
@@ -8310,7 +8261,7 @@
         <v>18173</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>313</v>
@@ -8351,7 +8302,7 @@
         <v>16983</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1229</v>
+        <v>1169</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>313</v>
@@ -8392,7 +8343,7 @@
         <v>23295</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1218</v>
+        <v>1158</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>313</v>
@@ -8433,7 +8384,7 @@
         <v>16576</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>313</v>
@@ -8474,7 +8425,7 @@
         <v>11955</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>1107</v>
@@ -8515,7 +8466,7 @@
         <v>11314</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>1097</v>
@@ -8556,7 +8507,7 @@
         <v>20093</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>313</v>
@@ -8597,13 +8548,13 @@
         <v>15167</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1229</v>
+        <v>1169</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>19</v>
@@ -8641,7 +8592,7 @@
         <v>28836</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G107" s="1" t="e">
         <v>#N/A</v>
@@ -8679,7 +8630,7 @@
         <v>17044</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>313</v>
@@ -8720,7 +8671,7 @@
         <v>28192</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>313</v>
@@ -8758,7 +8709,7 @@
         <v>12420</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1231</v>
+        <v>1171</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>313</v>
@@ -8799,7 +8750,7 @@
         <v>13376</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>313</v>
@@ -8840,7 +8791,7 @@
         <v>12890</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>1095</v>
@@ -8881,19 +8832,19 @@
         <v>12210</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1240</v>
+        <v>1180</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>1156</v>
+        <v>1200</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>1147</v>
+        <v>1204</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>1157</v>
+        <v>1116</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>19</v>
@@ -8931,7 +8882,7 @@
         <v>21905</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>313</v>
@@ -8969,7 +8920,7 @@
         <v>21926</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>313</v>
@@ -9010,7 +8961,7 @@
         <v>18957</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>1105</v>
@@ -9048,7 +8999,7 @@
         <v>15822</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1238</v>
+        <v>1178</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>1075</v>
@@ -9089,7 +9040,7 @@
         <v>12267</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1236</v>
+        <v>1176</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>313</v>
@@ -9133,13 +9084,13 @@
         <v>20047</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>19</v>
@@ -9177,7 +9128,7 @@
         <v>23885</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>313</v>
@@ -9218,16 +9169,16 @@
         <v>16604</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>1158</v>
+        <v>1201</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>1157</v>
+        <v>1116</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>19</v>
@@ -9262,7 +9213,7 @@
         <v>12587</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>313</v>
@@ -9306,16 +9257,16 @@
         <v>14718</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1237</v>
+        <v>1177</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1159</v>
+        <v>1092</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>1160</v>
+        <v>1093</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>19</v>
@@ -9353,7 +9304,7 @@
         <v>20604</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>313</v>
@@ -9394,13 +9345,13 @@
         <v>16493</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>1161</v>
+        <v>1132</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>19</v>
@@ -9438,7 +9389,7 @@
         <v>18959</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>313</v>
@@ -9479,7 +9430,7 @@
         <v>13237</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1225</v>
+        <v>1165</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>1097</v>
@@ -9520,16 +9471,16 @@
         <v>19567</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>1160</v>
+        <v>1093</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>19</v>
@@ -9567,7 +9518,7 @@
         <v>24595</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>1127</v>
@@ -9605,16 +9556,16 @@
         <v>21795</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1238</v>
+        <v>1178</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>1162</v>
+        <v>1133</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1163</v>
+        <v>1202</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M130" s="2" t="s">
         <v>19</v>
@@ -9652,7 +9603,7 @@
         <v>18979</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1218</v>
+        <v>1158</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>313</v>
@@ -9696,7 +9647,7 @@
         <v>33342</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>313</v>
@@ -9734,13 +9685,13 @@
         <v>15223</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>313</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>1159</v>
+        <v>1092</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -9781,13 +9732,13 @@
         <v>14928</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>1160</v>
+        <v>1093</v>
       </c>
       <c r="M134" s="2" t="s">
         <v>19</v>
@@ -9825,7 +9776,7 @@
         <v>17191</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>313</v>
@@ -9863,7 +9814,7 @@
         <v>19881</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>313</v>
@@ -9904,7 +9855,7 @@
         <v>11703</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>313</v>
@@ -9945,7 +9896,7 @@
         <v>8621</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>313</v>
@@ -9986,7 +9937,7 @@
         <v>19900</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1227</v>
+        <v>1167</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>313</v>
@@ -10027,16 +9978,16 @@
         <v>8665</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>1164</v>
+        <v>1220</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>19</v>
@@ -10074,7 +10025,7 @@
         <v>19713</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1225</v>
+        <v>1165</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>313</v>
@@ -10112,13 +10063,13 @@
         <v>19937</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M142" s="2" t="s">
         <v>19</v>
@@ -10153,7 +10104,7 @@
         <v>14514</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>313</v>
@@ -10197,7 +10148,7 @@
         <v>12127</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>313</v>
@@ -10238,7 +10189,7 @@
         <v>19791</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>1093</v>
@@ -10276,7 +10227,7 @@
         <v>20200</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>1104</v>
@@ -10317,16 +10268,16 @@
         <v>17275</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1236</v>
+        <v>1176</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>1160</v>
+        <v>1093</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>1165</v>
+        <v>1221</v>
       </c>
       <c r="M147" s="2" t="s">
         <v>19</v>
@@ -10361,13 +10312,13 @@
         <v>14109</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M148" s="2" t="s">
         <v>19</v>
@@ -10405,7 +10356,7 @@
         <v>11397</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>1098</v>
@@ -10446,7 +10397,7 @@
         <v>11561</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1219</v>
+        <v>1159</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>1093</v>
@@ -10484,7 +10435,7 @@
         <v>20365</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>313</v>
@@ -10525,7 +10476,7 @@
         <v>17981</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>313</v>
@@ -10563,7 +10514,7 @@
         <v>20915</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1239</v>
+        <v>1179</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>1093</v>
@@ -10604,7 +10555,7 @@
         <v>19132</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>1094</v>
@@ -10642,7 +10593,7 @@
         <v>15132</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1218</v>
+        <v>1158</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>313</v>
@@ -10683,7 +10634,7 @@
         <v>12771</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>313</v>
@@ -10724,13 +10675,13 @@
         <v>23159</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>1166</v>
+        <v>1134</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M157" s="2" t="s">
         <v>19</v>
@@ -10768,7 +10719,7 @@
         <v>14472</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>313</v>
@@ -10806,7 +10757,7 @@
         <v>18185</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>1108</v>
@@ -10847,7 +10798,7 @@
         <v>12749</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1239</v>
+        <v>1179</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>313</v>
@@ -10885,7 +10836,7 @@
         <v>28542</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>1092</v>
@@ -10926,7 +10877,7 @@
         <v>28881</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1239</v>
+        <v>1179</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>313</v>
@@ -10967,7 +10918,7 @@
         <v>23154</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1227</v>
+        <v>1167</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>1093</v>
@@ -11008,7 +10959,7 @@
         <v>21464</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>1092</v>
@@ -11049,7 +11000,7 @@
         <v>22726</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>313</v>
@@ -11090,7 +11041,7 @@
         <v>22714</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1237</v>
+        <v>1177</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>313</v>
@@ -11131,7 +11082,7 @@
         <v>20791</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>1093</v>
@@ -11172,7 +11123,7 @@
         <v>14793</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1236</v>
+        <v>1176</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>313</v>
@@ -11213,7 +11164,7 @@
         <v>15803</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>313</v>
@@ -11254,7 +11205,7 @@
         <v>26011</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1219</v>
+        <v>1159</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>1091</v>
@@ -11292,16 +11243,16 @@
         <v>12556</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1236</v>
+        <v>1176</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>1167</v>
+        <v>1203</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>1168</v>
+        <v>1091</v>
       </c>
       <c r="M171" s="2" t="s">
         <v>19</v>
@@ -11339,7 +11290,7 @@
         <v>18511</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>1110</v>
@@ -11380,7 +11331,7 @@
         <v>10827</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1227</v>
+        <v>1167</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>313</v>
@@ -11421,7 +11372,7 @@
         <v>12670</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1237</v>
+        <v>1177</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>313</v>
@@ -11459,7 +11410,7 @@
         <v>10365</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1232</v>
+        <v>1172</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>313</v>
@@ -11500,7 +11451,7 @@
         <v>10459</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>1107</v>
@@ -11541,13 +11492,13 @@
         <v>18447</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>1169</v>
+        <v>1111</v>
       </c>
       <c r="M177" s="2" t="s">
         <v>19</v>
@@ -11582,7 +11533,7 @@
         <v>16411</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>313</v>
@@ -11620,7 +11571,7 @@
         <v>14928</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>313</v>
@@ -11658,13 +11609,13 @@
         <v>16275</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M180" s="2" t="s">
         <v>19</v>
@@ -11702,7 +11653,7 @@
         <v>18986</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1240</v>
+        <v>1180</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>1126</v>
@@ -11743,13 +11694,13 @@
         <v>25313</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>1157</v>
+        <v>1116</v>
       </c>
       <c r="M182" s="2" t="s">
         <v>19</v>
@@ -11787,13 +11738,13 @@
         <v>20914</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>1138</v>
+        <v>1108</v>
       </c>
       <c r="M183" s="2" t="s">
         <v>19</v>
@@ -11831,7 +11782,7 @@
         <v>23334</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>313</v>
@@ -11872,7 +11823,7 @@
         <v>18630</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1229</v>
+        <v>1169</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>313</v>
@@ -11913,7 +11864,7 @@
         <v>12083</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1224</v>
+        <v>1164</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>313</v>
@@ -11951,7 +11902,7 @@
         <v>24982</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>1093</v>
@@ -11992,7 +11943,7 @@
         <v>14874</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>313</v>
@@ -12033,13 +11984,13 @@
         <v>26249</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1240</v>
+        <v>1180</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M189" s="2" t="s">
         <v>19</v>
@@ -12077,7 +12028,7 @@
         <v>21521</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>1072</v>
@@ -12118,7 +12069,7 @@
         <v>9388</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1230</v>
+        <v>1170</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>313</v>
@@ -12159,13 +12110,13 @@
         <v>13052</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M192" s="2" t="s">
         <v>19</v>
@@ -12203,7 +12154,7 @@
         <v>10397</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1237</v>
+        <v>1177</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>313</v>
@@ -12241,13 +12192,13 @@
         <v>13151</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>1147</v>
+        <v>1204</v>
       </c>
       <c r="M194" s="2" t="s">
         <v>19</v>
@@ -12282,7 +12233,7 @@
         <v>23790</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>1092</v>
@@ -12323,7 +12274,7 @@
         <v>18028</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>313</v>
@@ -12361,13 +12312,13 @@
         <v>15648</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>1170</v>
+        <v>1135</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M197" s="2" t="s">
         <v>19</v>
@@ -12405,7 +12356,7 @@
         <v>14073</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>313</v>
@@ -12443,13 +12394,13 @@
         <v>14710</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>1131</v>
+        <v>1096</v>
       </c>
       <c r="M199" s="2" t="s">
         <v>19</v>
@@ -12484,13 +12435,13 @@
         <v>13781</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>1171</v>
+        <v>1136</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M200" s="2" t="s">
         <v>19</v>
@@ -12534,7 +12485,7 @@
         <v>24425</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>313</v>
@@ -12575,13 +12526,13 @@
         <v>13639</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1229</v>
+        <v>1169</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M202" s="2" t="s">
         <v>19</v>
@@ -12619,13 +12570,13 @@
         <v>22705</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M203" s="2" t="s">
         <v>19</v>
@@ -12663,7 +12614,7 @@
         <v>15210</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1241</v>
+        <v>1181</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>1106</v>
@@ -12701,7 +12652,7 @@
         <v>13119</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>1098</v>
@@ -12742,13 +12693,13 @@
         <v>18950</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1225</v>
+        <v>1165</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>1135</v>
+        <v>1103</v>
       </c>
       <c r="M206" s="2" t="s">
         <v>19</v>
@@ -12783,19 +12734,19 @@
         <v>36778</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1218</v>
+        <v>1158</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>1172</v>
+        <v>1137</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>1173</v>
+        <v>1205</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>1175</v>
+        <v>1229</v>
       </c>
       <c r="M207" s="2" t="s">
         <v>19</v>
@@ -12830,7 +12781,7 @@
         <v>20926</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>313</v>
@@ -12871,16 +12822,16 @@
         <v>18825</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>1176</v>
+        <v>1138</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>1159</v>
+        <v>1092</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>1177</v>
+        <v>1222</v>
       </c>
       <c r="M209" s="2" t="s">
         <v>19</v>
@@ -12918,7 +12869,7 @@
         <v>27920</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>1119</v>
@@ -12956,7 +12907,7 @@
         <v>15502</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>313</v>
@@ -12994,7 +12945,7 @@
         <v>17874</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>313</v>
@@ -13032,7 +12983,7 @@
         <v>14044</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>313</v>
@@ -13073,13 +13024,13 @@
         <v>21488</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>1178</v>
+        <v>1139</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M214" s="2" t="s">
         <v>19</v>
@@ -13117,13 +13068,13 @@
         <v>14707</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1241</v>
+        <v>1181</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>1179</v>
+        <v>1099</v>
       </c>
       <c r="M215" s="2" t="s">
         <v>19</v>
@@ -13158,13 +13109,13 @@
         <v>19096</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1236</v>
+        <v>1176</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M216" s="2" t="s">
         <v>19</v>
@@ -13202,16 +13153,16 @@
         <v>22144</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>1180</v>
+        <v>1140</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>1181</v>
+        <v>1206</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>1157</v>
+        <v>1116</v>
       </c>
       <c r="M217" s="2" t="s">
         <v>19</v>
@@ -13249,7 +13200,7 @@
         <v>12210</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1224</v>
+        <v>1164</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>313</v>
@@ -13287,19 +13238,19 @@
         <v>17478</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>1182</v>
+        <v>1207</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>1183</v>
+        <v>1230</v>
       </c>
       <c r="M219" s="2" t="s">
         <v>19</v>
@@ -13334,7 +13285,7 @@
         <v>16810</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>313</v>
@@ -13375,16 +13326,16 @@
         <v>14230</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1229</v>
+        <v>1169</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>1184</v>
+        <v>1223</v>
       </c>
       <c r="M221" s="2" t="s">
         <v>19</v>
@@ -13419,7 +13370,7 @@
         <v>11932</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1236</v>
+        <v>1176</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>313</v>
@@ -13460,16 +13411,16 @@
         <v>23605</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1185</v>
+        <v>1141</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>1131</v>
+        <v>1096</v>
       </c>
       <c r="M223" s="2" t="s">
         <v>19</v>
@@ -13507,7 +13458,7 @@
         <v>13871</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>1120</v>
@@ -13548,7 +13499,7 @@
         <v>13013</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1231</v>
+        <v>1171</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>1095</v>
@@ -13589,16 +13540,16 @@
         <v>20870</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>1160</v>
+        <v>1093</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>1186</v>
+        <v>1224</v>
       </c>
       <c r="M226" s="2" t="s">
         <v>19</v>
@@ -13636,7 +13587,7 @@
         <v>16228</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>313</v>
@@ -13677,7 +13628,7 @@
         <v>23836</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>1123</v>
@@ -13715,7 +13666,7 @@
         <v>18304</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>1110</v>
@@ -13756,7 +13707,7 @@
         <v>22510</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>313</v>
@@ -13797,13 +13748,13 @@
         <v>24946</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1219</v>
+        <v>1159</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>1187</v>
+        <v>1208</v>
       </c>
       <c r="M231" s="2" t="s">
         <v>19</v>
@@ -13841,13 +13792,13 @@
         <v>21115</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1219</v>
+        <v>1159</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>1188</v>
+        <v>1209</v>
       </c>
       <c r="M232" s="2" t="s">
         <v>19</v>
@@ -13885,7 +13836,7 @@
         <v>17924</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>313</v>
@@ -13926,7 +13877,7 @@
         <v>17722</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>313</v>
@@ -13967,16 +13918,16 @@
         <v>16402</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1219</v>
+        <v>1159</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>1189</v>
+        <v>1210</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>1190</v>
+        <v>1225</v>
       </c>
       <c r="M235" s="2" t="s">
         <v>19</v>
@@ -14014,16 +13965,16 @@
         <v>25096</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>1191</v>
+        <v>1142</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>1192</v>
+        <v>1211</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M236" s="2" t="s">
         <v>19</v>
@@ -14061,13 +14012,13 @@
         <v>16459</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M237" s="2" t="s">
         <v>19</v>
@@ -14102,7 +14053,7 @@
         <v>19417</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>313</v>
@@ -14143,7 +14094,7 @@
         <v>15475</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>1108</v>
@@ -14184,7 +14135,7 @@
         <v>27163</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>1109</v>
@@ -14225,16 +14176,16 @@
         <v>32674</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>1193</v>
+        <v>1143</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>1194</v>
+        <v>1212</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M241" s="2" t="s">
         <v>19</v>
@@ -14269,13 +14220,13 @@
         <v>12994</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1227</v>
+        <v>1167</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>1195</v>
+        <v>1144</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>1160</v>
+        <v>1093</v>
       </c>
       <c r="M242" s="2" t="s">
         <v>19</v>
@@ -14313,13 +14264,13 @@
         <v>27602</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1240</v>
+        <v>1180</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>1196</v>
+        <v>1213</v>
       </c>
       <c r="M243" s="2" t="s">
         <v>19</v>
@@ -14357,7 +14308,7 @@
         <v>12239</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>313</v>
@@ -14398,7 +14349,7 @@
         <v>11142</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>313</v>
@@ -14439,7 +14390,7 @@
         <v>13066</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>313</v>
@@ -14480,7 +14431,7 @@
         <v>18331</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>1095</v>
@@ -14521,16 +14472,16 @@
         <v>22613</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1236</v>
+        <v>1176</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>1161</v>
+        <v>1132</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>1197</v>
+        <v>1214</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M248" s="2" t="s">
         <v>19</v>
@@ -14565,13 +14516,13 @@
         <v>11729</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1231</v>
+        <v>1171</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M249" s="2" t="s">
         <v>19</v>
@@ -14609,7 +14560,7 @@
         <v>30371</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>313</v>
@@ -14650,13 +14601,13 @@
         <v>19336</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>1198</v>
+        <v>1145</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M251" s="2" t="s">
         <v>19</v>
@@ -14691,7 +14642,7 @@
         <v>16380</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>1101</v>
@@ -14732,7 +14683,7 @@
         <v>18371</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1236</v>
+        <v>1176</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>1110</v>
@@ -14770,13 +14721,13 @@
         <v>20164</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>1199</v>
+        <v>1146</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>1200</v>
+        <v>1215</v>
       </c>
       <c r="M254" s="2" t="s">
         <v>19</v>
@@ -14811,13 +14762,13 @@
         <v>12656</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M255" s="2" t="s">
         <v>19</v>
@@ -14852,7 +14803,7 @@
         <v>33202</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>313</v>
@@ -14893,7 +14844,7 @@
         <v>16821</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>1095</v>
@@ -14934,13 +14885,13 @@
         <v>13268</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M258" s="2" t="s">
         <v>19</v>
@@ -14981,7 +14932,7 @@
         <v>16102</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1225</v>
+        <v>1165</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>1103</v>
@@ -15019,7 +14970,7 @@
         <v>18494</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>1115</v>
@@ -15057,13 +15008,13 @@
         <v>14981</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>1201</v>
+        <v>1147</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>1202</v>
+        <v>1216</v>
       </c>
       <c r="M261" s="2" t="s">
         <v>19</v>
@@ -15101,7 +15052,7 @@
         <v>20974</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>313</v>
@@ -15142,7 +15093,7 @@
         <v>18981</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>313</v>
@@ -15186,13 +15137,13 @@
         <v>20249</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>1179</v>
+        <v>1099</v>
       </c>
       <c r="M264" s="2" t="s">
         <v>19</v>
@@ -15230,7 +15181,7 @@
         <v>13835</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>313</v>
@@ -15271,7 +15222,7 @@
         <v>16326</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>313</v>
@@ -15312,19 +15263,19 @@
         <v>15028</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>1237</v>
+        <v>1177</v>
       </c>
       <c r="G267" s="4" t="s">
         <v>1110</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>1203</v>
+        <v>1217</v>
       </c>
       <c r="I267" s="4" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>1204</v>
+        <v>1231</v>
       </c>
       <c r="K267" s="4"/>
       <c r="L267" s="4"/>
@@ -15367,13 +15318,13 @@
         <v>15246</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>1150</v>
+        <v>1131</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>1145</v>
+        <v>1098</v>
       </c>
       <c r="M268" s="2" t="s">
         <v>19</v>
@@ -15411,13 +15362,13 @@
         <v>11170</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>313</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>1205</v>
+        <v>1218</v>
       </c>
       <c r="M269" s="2" t="s">
         <v>19</v>
@@ -15455,13 +15406,13 @@
         <v>23293</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>1131</v>
+        <v>1096</v>
       </c>
       <c r="M270" s="2" t="s">
         <v>19</v>
@@ -15499,13 +15450,13 @@
         <v>20917</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M271" s="2" t="s">
         <v>19</v>
@@ -15543,16 +15494,16 @@
         <v>14339</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>1206</v>
+        <v>1148</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>1207</v>
+        <v>1226</v>
       </c>
       <c r="M272" s="2" t="s">
         <v>19</v>
@@ -15587,16 +15538,16 @@
         <v>14689</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>1208</v>
+        <v>1097</v>
       </c>
       <c r="M273" s="2" t="s">
         <v>19</v>
@@ -15634,7 +15585,7 @@
         <v>18899</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>313</v>
@@ -15672,7 +15623,7 @@
         <v>11733</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1231</v>
+        <v>1171</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>313</v>
@@ -15713,13 +15664,13 @@
         <v>17087</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>1171</v>
+        <v>1136</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>1159</v>
+        <v>1092</v>
       </c>
       <c r="M276" s="2" t="s">
         <v>19</v>
@@ -15757,7 +15708,7 @@
         <v>11350</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>1111</v>
@@ -15798,13 +15749,13 @@
         <v>11838</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="M278" s="2" t="s">
         <v>19</v>
@@ -15842,7 +15793,7 @@
         <v>18384</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>313</v>
@@ -15880,7 +15831,7 @@
         <v>21131</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>313</v>
@@ -15921,7 +15872,7 @@
         <v>20645</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>313</v>
@@ -15959,7 +15910,7 @@
         <v>20964</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1224</v>
+        <v>1164</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>313</v>
@@ -16000,7 +15951,7 @@
         <v>14475</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1224</v>
+        <v>1164</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>313</v>
@@ -16038,10 +15989,10 @@
         <v>20267</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>1209</v>
+        <v>1149</v>
       </c>
       <c r="M284" s="2" t="s">
         <v>19</v>
@@ -16079,7 +16030,7 @@
         <v>20497</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>313</v>
@@ -16123,7 +16074,7 @@
         <v>11932</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>313</v>
@@ -16164,7 +16115,7 @@
         <v>17168</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>313</v>
@@ -16205,7 +16156,7 @@
         <v>15239</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1225</v>
+        <v>1165</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>313</v>
@@ -16246,7 +16197,7 @@
         <v>12720</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1232</v>
+        <v>1172</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>313</v>
@@ -16287,7 +16238,7 @@
         <v>24157</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>1093</v>
@@ -16328,7 +16279,7 @@
         <v>11616</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G291" s="4" t="s">
         <v>313</v>
@@ -16373,7 +16324,7 @@
         <v>14677</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>313</v>
@@ -16414,7 +16365,7 @@
         <v>20970</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>313</v>
@@ -16455,7 +16406,7 @@
         <v>13149</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>1121</v>
@@ -16496,7 +16447,7 @@
         <v>21949</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>313</v>
@@ -16534,7 +16485,7 @@
         <v>12206</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>1095</v>
@@ -16575,7 +16526,7 @@
         <v>10639</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G297" s="4" t="s">
         <v>1099</v>
@@ -16620,7 +16571,7 @@
         <v>13140</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>313</v>
@@ -16661,7 +16612,7 @@
         <v>18686</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>313</v>
@@ -16690,7 +16641,7 @@
         <v>34624</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1210</v>
+        <v>1150</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>656</v>
@@ -16702,7 +16653,7 @@
         <v>11248</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>313</v>
@@ -16743,7 +16694,7 @@
         <v>16367</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>1096</v>
@@ -16784,7 +16735,7 @@
         <v>15653</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G302" s="1" t="s">
         <v>313</v>
@@ -16825,7 +16776,7 @@
         <v>20241</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>313</v>
@@ -16866,7 +16817,7 @@
         <v>17186</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>1225</v>
+        <v>1165</v>
       </c>
       <c r="G304" s="1" t="s">
         <v>1097</v>
@@ -16907,7 +16858,7 @@
         <v>11337</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G305" s="1" t="s">
         <v>313</v>
@@ -16948,7 +16899,7 @@
         <v>16798</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G306" s="1" t="s">
         <v>313</v>
@@ -16989,7 +16940,7 @@
         <v>15430</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G307" s="1" t="s">
         <v>1100</v>
@@ -17027,13 +16978,13 @@
         <v>18520</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="M308" s="2" t="s">
         <v>19</v>
@@ -17074,7 +17025,7 @@
         <v>15501</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>313</v>
@@ -17115,7 +17066,7 @@
         <v>21080</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>313</v>
@@ -17153,7 +17104,7 @@
         <v>23183</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1218</v>
+        <v>1158</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>313</v>
@@ -17191,7 +17142,7 @@
         <v>17600</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>313</v>
@@ -17232,7 +17183,7 @@
         <v>13435</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G313" s="1" t="s">
         <v>313</v>
@@ -17273,7 +17224,7 @@
         <v>14253</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>313</v>
@@ -17314,7 +17265,7 @@
         <v>18540</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>1239</v>
+        <v>1179</v>
       </c>
       <c r="G315" s="1" t="s">
         <v>313</v>
@@ -17355,7 +17306,7 @@
         <v>13768</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G316" s="1" t="s">
         <v>313</v>
@@ -17396,7 +17347,7 @@
         <v>9027</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>313</v>
@@ -17425,7 +17376,7 @@
         <v>38475</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1211</v>
+        <v>1151</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>832</v>
@@ -17437,7 +17388,7 @@
         <v>17137</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G318" s="1" t="s">
         <v>313</v>
@@ -17478,7 +17429,7 @@
         <v>16978</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>1224</v>
+        <v>1164</v>
       </c>
       <c r="G319" s="1" t="s">
         <v>1093</v>
@@ -17519,7 +17470,7 @@
         <v>15575</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>313</v>
@@ -17560,7 +17511,7 @@
         <v>13639</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G321" s="1" t="s">
         <v>1092</v>
@@ -17604,7 +17555,7 @@
         <v>14059</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G322" s="1" t="s">
         <v>313</v>
@@ -17642,7 +17593,7 @@
         <v>17676</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G323" s="1" t="s">
         <v>313</v>
@@ -17680,7 +17631,7 @@
         <v>8939</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>313</v>
@@ -17724,7 +17675,7 @@
         <v>16580</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G325" s="1" t="s">
         <v>313</v>
@@ -17762,7 +17713,7 @@
         <v>11112</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1237</v>
+        <v>1177</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>1093</v>
@@ -17800,7 +17751,7 @@
         <v>25968</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1237</v>
+        <v>1177</v>
       </c>
       <c r="G327" s="1" t="s">
         <v>313</v>
@@ -17841,7 +17792,7 @@
         <v>14887</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>313</v>
@@ -17879,7 +17830,7 @@
         <v>11714</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>313</v>
@@ -17920,7 +17871,7 @@
         <v>21342</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>313</v>
@@ -17961,7 +17912,7 @@
         <v>25541</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>313</v>
@@ -18002,7 +17953,7 @@
         <v>16124</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>1110</v>
@@ -18043,7 +17994,7 @@
         <v>10006</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>313</v>
@@ -18084,7 +18035,7 @@
         <v>15564</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>1227</v>
+        <v>1167</v>
       </c>
       <c r="G334" s="1" t="s">
         <v>313</v>
@@ -18122,7 +18073,7 @@
         <v>25682</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>313</v>
@@ -18151,7 +18102,7 @@
         <v>37153</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1212</v>
+        <v>1152</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>83</v>
@@ -18163,7 +18114,7 @@
         <v>25063</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="G336" s="1" t="s">
         <v>313</v>
@@ -18204,7 +18155,7 @@
         <v>22568</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G337" s="1" t="s">
         <v>313</v>
@@ -18245,7 +18196,7 @@
         <v>15985</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1236</v>
+        <v>1176</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>313</v>
@@ -18286,7 +18237,7 @@
         <v>16592</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G339" s="1" t="s">
         <v>1092</v>
@@ -18327,7 +18278,7 @@
         <v>23325</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G340" s="1" t="s">
         <v>313</v>
@@ -18368,7 +18319,7 @@
         <v>12592</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G341" s="1" t="s">
         <v>313</v>
@@ -18409,7 +18360,7 @@
         <v>18987</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>1241</v>
+        <v>1181</v>
       </c>
       <c r="G342" s="1" t="s">
         <v>313</v>
@@ -18435,7 +18386,7 @@
         <v>39232</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1213</v>
+        <v>1153</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>891</v>
@@ -18447,7 +18398,7 @@
         <v>12818</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>313</v>
@@ -18488,7 +18439,7 @@
         <v>19899</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G344" s="1" t="s">
         <v>313</v>
@@ -18526,7 +18477,7 @@
         <v>18381</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G345" s="1" t="s">
         <v>1101</v>
@@ -18564,7 +18515,7 @@
         <v>13536</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G346" s="1" t="s">
         <v>313</v>
@@ -18602,7 +18553,7 @@
         <v>23653</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G347" s="1" t="s">
         <v>1099</v>
@@ -18643,7 +18594,7 @@
         <v>9952</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>313</v>
@@ -18684,7 +18635,7 @@
         <v>16240</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G349" s="1" t="s">
         <v>313</v>
@@ -18725,7 +18676,7 @@
         <v>16849</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G350" s="1" t="s">
         <v>1092</v>
@@ -18766,7 +18717,7 @@
         <v>11817</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1224</v>
+        <v>1164</v>
       </c>
       <c r="G351" s="1" t="s">
         <v>313</v>
@@ -18804,7 +18755,7 @@
         <v>16263</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G352" s="4" t="s">
         <v>313</v>
@@ -18851,7 +18802,7 @@
         <v>17377</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G353" s="1" t="s">
         <v>313</v>
@@ -18892,7 +18843,7 @@
         <v>11575</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G354" s="1" t="s">
         <v>313</v>
@@ -18933,7 +18884,7 @@
         <v>11285</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G355" s="1" t="s">
         <v>313</v>
@@ -18974,7 +18925,7 @@
         <v>17803</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G356" s="1" t="s">
         <v>1101</v>
@@ -19015,7 +18966,7 @@
         <v>27622</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1242</v>
+        <v>1182</v>
       </c>
       <c r="G357" s="1" t="s">
         <v>313</v>
@@ -19056,7 +19007,7 @@
         <v>9288</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G358" s="1" t="s">
         <v>313</v>
@@ -19097,7 +19048,7 @@
         <v>16468</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G359" s="1" t="s">
         <v>313</v>
@@ -19138,7 +19089,7 @@
         <v>19575</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1227</v>
+        <v>1167</v>
       </c>
       <c r="G360" s="1" t="s">
         <v>313</v>
@@ -19179,7 +19130,7 @@
         <v>20392</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G361" s="1" t="s">
         <v>313</v>
@@ -19220,7 +19171,7 @@
         <v>14470</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G362" s="1" t="s">
         <v>1101</v>
@@ -19258,7 +19209,7 @@
         <v>11563</v>
       </c>
       <c r="F363" s="4" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G363" s="4" t="s">
         <v>313</v>
@@ -19303,7 +19254,7 @@
         <v>14971</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G364" s="1" t="s">
         <v>313</v>
@@ -19341,7 +19292,7 @@
         <v>380660</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G365" s="1" t="s">
         <v>1116</v>
@@ -19382,7 +19333,7 @@
         <v>16881</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G366" s="1" t="s">
         <v>313</v>
@@ -19420,7 +19371,7 @@
         <v>24191</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G367" s="1" t="s">
         <v>1093</v>
@@ -19461,7 +19412,7 @@
         <v>21345</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G368" s="1" t="s">
         <v>313</v>
@@ -19499,7 +19450,7 @@
         <v>9978</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G369" s="1" t="s">
         <v>1111</v>
@@ -19543,7 +19494,7 @@
         <v>10678</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G370" s="1" t="s">
         <v>1108</v>
@@ -19584,7 +19535,7 @@
         <v>17361</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G371" s="1" t="s">
         <v>313</v>
@@ -19625,7 +19576,7 @@
         <v>11221</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G372" s="1" t="s">
         <v>1111</v>
@@ -19663,7 +19614,7 @@
         <v>22411</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G373" s="1" t="s">
         <v>313</v>
@@ -19704,7 +19655,7 @@
         <v>17880</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1225</v>
+        <v>1165</v>
       </c>
       <c r="G374" s="1" t="s">
         <v>313</v>
@@ -19745,7 +19696,7 @@
         <v>14220</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1218</v>
+        <v>1158</v>
       </c>
       <c r="G375" s="1" t="s">
         <v>313</v>
@@ -19786,7 +19737,7 @@
         <v>31166</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G376" s="1" t="s">
         <v>1098</v>
@@ -19827,7 +19778,7 @@
         <v>19059</v>
       </c>
       <c r="F377" s="4" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G377" s="4" t="s">
         <v>1128</v>
@@ -36231,7 +36182,7 @@
         <v>18013</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G378" s="1" t="s">
         <v>313</v>
@@ -36272,7 +36223,7 @@
         <v>11729</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G379" s="1" t="s">
         <v>1122</v>
@@ -36310,7 +36261,7 @@
         <v>23678</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G380" s="1" t="s">
         <v>1112</v>
@@ -36348,7 +36299,7 @@
         <v>12080</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1222</v>
+        <v>1162</v>
       </c>
       <c r="G381" s="1" t="s">
         <v>1092</v>
@@ -36386,7 +36337,7 @@
         <v>20275</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G382" s="1" t="s">
         <v>1117</v>
@@ -36424,7 +36375,7 @@
         <v>11624</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G383" s="1" t="s">
         <v>313</v>
@@ -36465,7 +36416,7 @@
         <v>20602</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G384" s="1" t="s">
         <v>1101</v>
@@ -36506,7 +36457,7 @@
         <v>28606</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1237</v>
+        <v>1177</v>
       </c>
       <c r="G385" s="1" t="s">
         <v>313</v>
@@ -36550,7 +36501,7 @@
         <v>17976</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G386" s="1" t="s">
         <v>313</v>
@@ -36591,7 +36542,7 @@
         <v>17161</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G387" s="1" t="s">
         <v>313</v>
@@ -36629,7 +36580,7 @@
         <v>17775</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>1231</v>
+        <v>1171</v>
       </c>
       <c r="G388" s="1" t="s">
         <v>313</v>
@@ -36670,7 +36621,7 @@
         <v>16438</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G389" s="1" t="s">
         <v>1093</v>
@@ -36708,7 +36659,7 @@
         <v>14609</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G390" s="1" t="s">
         <v>1093</v>
@@ -36752,7 +36703,7 @@
         <v>16464</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G391" s="1" t="s">
         <v>313</v>
@@ -36793,7 +36744,7 @@
         <v>23202</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G392" s="1" t="s">
         <v>1110</v>
@@ -36834,7 +36785,7 @@
         <v>20346</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G393" s="1" t="s">
         <v>1093</v>
@@ -36872,7 +36823,7 @@
         <v>13004</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G394" s="1" t="s">
         <v>1125</v>
@@ -36913,7 +36864,7 @@
         <v>18374</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G395" s="1" t="s">
         <v>313</v>
@@ -36954,7 +36905,7 @@
         <v>12523</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G396" s="1" t="s">
         <v>1119</v>
@@ -36992,7 +36943,7 @@
         <v>17400</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G397" s="1" t="s">
         <v>313</v>
@@ -37030,7 +36981,7 @@
         <v>23019</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1234</v>
+        <v>1174</v>
       </c>
       <c r="G398" s="1" t="s">
         <v>313</v>
@@ -37071,7 +37022,7 @@
         <v>23623</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G399" s="1" t="s">
         <v>313</v>
@@ -37112,7 +37063,7 @@
         <v>26061</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G400" s="1" t="s">
         <v>1118</v>
@@ -37153,7 +37104,7 @@
         <v>28664</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G401" s="1" t="s">
         <v>1093</v>
@@ -37191,7 +37142,7 @@
         <v>19650</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G402" s="1" t="s">
         <v>1111</v>
@@ -37229,7 +37180,7 @@
         <v>26724</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G403" s="1" t="s">
         <v>313</v>
@@ -37267,7 +37218,7 @@
         <v>20167</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G404" s="1" t="s">
         <v>1119</v>
@@ -37305,7 +37256,7 @@
         <v>16746</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1230</v>
+        <v>1170</v>
       </c>
       <c r="G405" s="1" t="s">
         <v>313</v>
@@ -37334,7 +37285,7 @@
         <v>42980</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1214</v>
+        <v>1154</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>1037</v>
@@ -37346,7 +37297,7 @@
         <v>11334</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G406" s="1" t="s">
         <v>1110</v>
@@ -37390,7 +37341,7 @@
         <v>17019</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1228</v>
+        <v>1168</v>
       </c>
       <c r="G407" s="1" t="s">
         <v>313</v>
@@ -37434,7 +37385,7 @@
         <v>11963</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G408" s="1" t="s">
         <v>1110</v>
@@ -37460,7 +37411,7 @@
         <v>42310</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1215</v>
+        <v>1155</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>1044</v>
@@ -37472,7 +37423,7 @@
         <v>29080</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G409" s="1" t="s">
         <v>313</v>
@@ -37516,7 +37467,7 @@
         <v>13608</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G410" s="1" t="s">
         <v>1093</v>
@@ -37554,7 +37505,7 @@
         <v>28116</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G411" s="1" t="s">
         <v>1114</v>
@@ -37598,7 +37549,7 @@
         <v>19695</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G412" s="1" t="s">
         <v>1098</v>
@@ -37636,7 +37587,7 @@
         <v>16661</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1221</v>
+        <v>1161</v>
       </c>
       <c r="G413" s="1" t="s">
         <v>313</v>
@@ -37674,7 +37625,7 @@
         <v>13732</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G414" s="1" t="s">
         <v>1111</v>
@@ -37718,7 +37669,7 @@
         <v>15948</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G415" s="1" t="s">
         <v>1092</v>
@@ -37762,7 +37713,7 @@
         <v>16851</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G416" s="1" t="s">
         <v>313</v>
@@ -37800,7 +37751,7 @@
         <v>14294</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1233</v>
+        <v>1173</v>
       </c>
       <c r="G417" s="1" t="s">
         <v>313</v>
@@ -37838,7 +37789,7 @@
         <v>18945</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G418" s="1" t="s">
         <v>1113</v>
@@ -37882,7 +37833,7 @@
         <v>17390</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1220</v>
+        <v>1160</v>
       </c>
       <c r="G419" s="1" t="s">
         <v>313</v>
@@ -37920,7 +37871,7 @@
         <v>21350</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1223</v>
+        <v>1163</v>
       </c>
       <c r="G420" s="1" t="s">
         <v>1094</v>
@@ -37961,7 +37912,7 @@
         <v>10897</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1225</v>
+        <v>1165</v>
       </c>
       <c r="G421" s="1" t="s">
         <v>1099</v>
@@ -37999,7 +37950,7 @@
         <v>25521</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1243</v>
+        <v>1183</v>
       </c>
       <c r="G422" s="1" t="s">
         <v>1093</v>
@@ -38037,7 +37988,7 @@
         <v>16747</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1229</v>
+        <v>1169</v>
       </c>
       <c r="G423" s="1" t="s">
         <v>313</v>
@@ -38075,7 +38026,7 @@
         <v>16975</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G424" s="1" t="s">
         <v>1096</v>
@@ -38113,7 +38064,7 @@
         <v>12493</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1226</v>
+        <v>1166</v>
       </c>
       <c r="G425" s="1" t="s">
         <v>313</v>
@@ -38151,7 +38102,7 @@
         <v>14701</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1217</v>
+        <v>1157</v>
       </c>
       <c r="G426" s="1" t="s">
         <v>1093</v>

--- a/Copy of TFS_Submission_October 2022 RPM Billing_11072022 (005).xlsx
+++ b/Copy of TFS_Submission_October 2022 RPM Billing_11072022 (005).xlsx
@@ -4117,8 +4117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEX426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4202,37 +4202,25 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>26933</v>
+        <v>33576</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>10630</v>
+        <v>27616</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1232</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>19</v>
@@ -4241,13 +4229,13 @@
         <v>99454</v>
       </c>
       <c r="O2" s="2">
-        <v>44850</v>
+        <v>44854</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
         <v>44865</v>
@@ -4255,37 +4243,37 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>23522</v>
+        <v>26933</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
-        <v>15880</v>
+        <v>10630</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1179</v>
+        <v>1157</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1204</v>
+        <v>313</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1227</v>
+        <v>1108</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>19</v>
@@ -4432,25 +4420,34 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>33576</v>
+        <v>35499</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
-        <v>27616</v>
+        <v>20262</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>313</v>
+        <v>1129</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1228</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>19</v>
@@ -4459,13 +4456,13 @@
         <v>99454</v>
       </c>
       <c r="O7" s="2">
-        <v>44854</v>
+        <v>44850</v>
       </c>
       <c r="P7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R7" s="2">
         <v>44865</v>
@@ -4473,34 +4470,25 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>35499</v>
+        <v>35551</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2">
-        <v>20262</v>
+        <v>17750</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1157</v>
+        <v>1183</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>1228</v>
+        <v>313</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>19</v>
@@ -4509,7 +4497,7 @@
         <v>99454</v>
       </c>
       <c r="O8" s="2">
-        <v>44850</v>
+        <v>44855</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
@@ -4522,114 +4510,117 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>35551</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2">
-        <v>17750</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="A9" s="4">
+        <v>40658</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5">
+        <v>13267</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>1183</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>44846</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>19521</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2">
+        <v>18420</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="1">
         <v>99454</v>
       </c>
-      <c r="O9" s="2">
-        <v>44855</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2">
-        <v>44865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>40658</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5">
-        <v>13267</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="O10" s="2">
+        <v>44850</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
         <v>1</v>
       </c>
       <c r="R10" s="2">
-        <v>44846</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>32</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>19521</v>
+        <v>19921</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2">
-        <v>18420</v>
+        <v>14305</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1160</v>
+        <v>1183</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1093</v>
+        <v>1130</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>313</v>
@@ -4641,7 +4632,7 @@
         <v>99454</v>
       </c>
       <c r="O11" s="2">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
@@ -4655,28 +4646,25 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>19921</v>
+        <v>20287</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2">
-        <v>14305</v>
+        <v>31379</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1183</v>
+        <v>1161</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>313</v>
+        <v>1093</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>19</v>
@@ -4685,13 +4673,13 @@
         <v>99454</v>
       </c>
       <c r="O12" s="2">
-        <v>44851</v>
+        <v>44850</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12" s="2">
         <v>44865</v>
@@ -4699,26 +4687,29 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>20287</v>
+        <v>20891</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2">
-        <v>31379</v>
+        <v>17212</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1093</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="M13" s="2" t="s">
         <v>19</v>
       </c>
@@ -4726,13 +4717,13 @@
         <v>99454</v>
       </c>
       <c r="O13" s="2">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13" s="2">
         <v>44865</v>
@@ -4740,22 +4731,22 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>20891</v>
+        <v>22126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2">
-        <v>17212</v>
+        <v>12560</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1093</v>
@@ -4770,13 +4761,13 @@
         <v>99454</v>
       </c>
       <c r="O14" s="2">
-        <v>44851</v>
+        <v>44850</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
         <v>44865</v>
@@ -4784,37 +4775,31 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>22126</v>
+        <v>23097</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
-        <v>12560</v>
+        <v>12109</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>313</v>
+        <v>1097</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="1">
-        <v>99454</v>
-      </c>
-      <c r="O15" s="2">
-        <v>44850</v>
+      <c r="O15" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
@@ -4828,25 +4813,25 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>23097</v>
+        <v>23443</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2">
-        <v>12109</v>
+        <v>16460</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1097</v>
+        <v>313</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>19</v>
@@ -4866,31 +4851,34 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>23443</v>
+        <v>24429</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2">
-        <v>16460</v>
+        <v>19902</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1157</v>
+        <v>1164</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>313</v>
+        <v>1093</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>19</v>
+      <c r="N17" s="1">
+        <v>99454</v>
+      </c>
+      <c r="O17" s="2">
+        <v>44850</v>
       </c>
       <c r="P17" s="1">
         <v>1</v>
@@ -4904,34 +4892,31 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>24429</v>
+        <v>24645</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2">
-        <v>19902</v>
+        <v>17487</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1093</v>
+        <v>313</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="1">
-        <v>99454</v>
-      </c>
-      <c r="O18" s="2">
-        <v>44850</v>
+      <c r="O18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="P18" s="1">
         <v>1</v>
@@ -4945,31 +4930,34 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>24645</v>
+        <v>25963</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2">
-        <v>17487</v>
+        <v>13801</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>313</v>
+        <v>1108</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>19</v>
+      <c r="N19" s="1">
+        <v>99454</v>
+      </c>
+      <c r="O19" s="2">
+        <v>44850</v>
       </c>
       <c r="P19" s="1">
         <v>1</v>
@@ -4983,25 +4971,28 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>25963</v>
+        <v>25996</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2">
-        <v>13801</v>
+        <v>15730</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1108</v>
+        <v>1110</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1103</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>19</v>
@@ -5010,7 +5001,7 @@
         <v>99454</v>
       </c>
       <c r="O20" s="2">
-        <v>44850</v>
+        <v>44856</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -5024,28 +5015,28 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>25996</v>
+        <v>26097</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2">
-        <v>15730</v>
+        <v>26498</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1103</v>
+        <v>1120</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>19</v>
@@ -5054,7 +5045,7 @@
         <v>99454</v>
       </c>
       <c r="O21" s="2">
-        <v>44856</v>
+        <v>44850</v>
       </c>
       <c r="P21" s="1">
         <v>1</v>
@@ -5068,28 +5059,37 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>26097</v>
+        <v>23522</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="E22" s="2">
-        <v>26498</v>
+        <v>15880</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1120</v>
+        <v>1192</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1233</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>19</v>
